--- a/doc/Bericht/05_Technischer Bericht/06_HSR Videowall Evaluation & Tests/Video Performance Tests.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/06_HSR Videowall Evaluation & Tests/Video Performance Tests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
   <si>
     <t>Anz. Monitore</t>
   </si>
@@ -67,6 +67,19 @@
   </si>
   <si>
     <t>WPF Video Performance Tests</t>
+  </si>
+  <si>
+    <t>Anzahl Monitore</t>
+  </si>
+  <si>
+    <t>Treibermodell</t>
+  </si>
+  <si>
+    <t>Monitormodus</t>
+  </si>
+  <si>
+    <t>Videogrösse
+(x*FullHD)</t>
   </si>
 </sst>
 </file>
@@ -162,12 +175,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,6 +237,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -242,7 +255,7 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -252,6 +265,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -284,12 +306,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -307,9 +323,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -321,13 +334,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:E16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A3:E16"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Anz. Monitore" dataDxfId="4"/>
-    <tableColumn id="2" name="Treiber Modell"/>
-    <tableColumn id="3" name="Monitor Modus"/>
-    <tableColumn id="4" name="Video Grösse_x000a_(x*FullHD)"/>
+    <tableColumn id="1" name="Anzahl Monitore" dataDxfId="10"/>
+    <tableColumn id="2" name="Treibermodell"/>
+    <tableColumn id="3" name="Monitormodus"/>
+    <tableColumn id="4" name="Videogrösse_x000a_(x*FullHD)"/>
     <tableColumn id="8" name="Performance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -335,15 +348,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G16" headerRowDxfId="11" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G16" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="7">
-    <tableColumn id="1" name="Anz. Monitore" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Anz. Monitore" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="2" name="Treiber Modell"/>
     <tableColumn id="3" name="Monitor Modus"/>
     <tableColumn id="4" name="Video Grösse_x000a_(x*FullHD)"/>
-    <tableColumn id="5" name="Gut" dataDxfId="10" totalsRowDxfId="1"/>
-    <tableColumn id="6" name="Knapp" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Unbrauchbar" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="5" name="Gut" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Knapp" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Unbrauchbar" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -639,7 +652,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,79 +665,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6">
         <v>1.5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>1.5</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -732,44 +745,44 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -783,10 +796,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -795,80 +808,80 @@
       <c r="D10" s="2">
         <v>1.5</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -885,7 +898,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -897,7 +910,7 @@
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -923,267 +936,267 @@
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="13" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>8</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>1.5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>1.5</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <v>1.5</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>2</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>1</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="28">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="26">
         <v>1.5</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>9</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="14">
         <v>1.5</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="28">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="26">
         <v>2</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
